--- a/Financials/Yearly/NOVKY_YR_FIN.xlsx
+++ b/Financials/Yearly/NOVKY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5E51E9-E00E-4075-8EBB-2AB1590F46B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVKY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8852800</v>
+        <v>12809100</v>
       </c>
       <c r="E8" s="3">
-        <v>8158800</v>
+        <v>8981100</v>
       </c>
       <c r="F8" s="3">
-        <v>7215400</v>
+        <v>8277100</v>
       </c>
       <c r="G8" s="3">
-        <v>5429000</v>
+        <v>7320000</v>
       </c>
       <c r="H8" s="3">
-        <v>4526000</v>
+        <v>5507700</v>
       </c>
       <c r="I8" s="3">
-        <v>3202600</v>
+        <v>4591600</v>
       </c>
       <c r="J8" s="3">
+        <v>3249000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2660600</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4804400</v>
+        <v>7272500</v>
       </c>
       <c r="E9" s="3">
-        <v>4344000</v>
+        <v>4734900</v>
       </c>
       <c r="F9" s="3">
-        <v>3987900</v>
+        <v>4407000</v>
       </c>
       <c r="G9" s="3">
-        <v>2706400</v>
+        <v>4045700</v>
       </c>
       <c r="H9" s="3">
-        <v>2179000</v>
+        <v>2745700</v>
       </c>
       <c r="I9" s="3">
-        <v>358400</v>
+        <v>2210600</v>
       </c>
       <c r="J9" s="3">
+        <v>1300700</v>
+      </c>
+      <c r="K9" s="3">
         <v>179700</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4048400</v>
+        <v>5536600</v>
       </c>
       <c r="E10" s="3">
-        <v>3814800</v>
+        <v>4246200</v>
       </c>
       <c r="F10" s="3">
-        <v>3227600</v>
+        <v>3870100</v>
       </c>
       <c r="G10" s="3">
-        <v>2722600</v>
+        <v>3274300</v>
       </c>
       <c r="H10" s="3">
-        <v>2347000</v>
+        <v>2762000</v>
       </c>
       <c r="I10" s="3">
-        <v>2844100</v>
+        <v>2381000</v>
       </c>
       <c r="J10" s="3">
+        <v>1948300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2481000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>32100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>11800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K12" s="3">
         <v>27600</v>
       </c>
-      <c r="E12" s="3">
-        <v>31700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>11600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>30700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>27600</v>
-      </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
-        <v>-1106500</v>
-      </c>
       <c r="F14" s="3">
-        <v>-18100</v>
+        <v>-1122600</v>
       </c>
       <c r="G14" s="3">
-        <v>-43300</v>
+        <v>-18400</v>
       </c>
       <c r="H14" s="3">
-        <v>-531900</v>
+        <v>-43900</v>
       </c>
       <c r="I14" s="3">
-        <v>4900</v>
+        <v>-539600</v>
       </c>
       <c r="J14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K14" s="3">
         <v>11900</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>535100</v>
+        <v>520800</v>
       </c>
       <c r="E15" s="3">
-        <v>530000</v>
+        <v>542900</v>
       </c>
       <c r="F15" s="3">
-        <v>305500</v>
+        <v>537600</v>
       </c>
       <c r="G15" s="3">
-        <v>262700</v>
+        <v>310000</v>
       </c>
       <c r="H15" s="3">
-        <v>207100</v>
+        <v>266500</v>
       </c>
       <c r="I15" s="3">
-        <v>174600</v>
+        <v>210100</v>
       </c>
       <c r="J15" s="3">
+        <v>177100</v>
+      </c>
+      <c r="K15" s="3">
         <v>143800</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6367000</v>
+        <v>9310400</v>
       </c>
       <c r="E17" s="3">
-        <v>4739300</v>
+        <v>6459300</v>
       </c>
       <c r="F17" s="3">
-        <v>5079200</v>
+        <v>4808000</v>
       </c>
       <c r="G17" s="3">
-        <v>3489600</v>
+        <v>5152800</v>
       </c>
       <c r="H17" s="3">
-        <v>2341200</v>
+        <v>3540200</v>
       </c>
       <c r="I17" s="3">
-        <v>1907200</v>
+        <v>2375200</v>
       </c>
       <c r="J17" s="3">
+        <v>1934800</v>
+      </c>
+      <c r="K17" s="3">
         <v>511000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2485700</v>
+        <v>3498600</v>
       </c>
       <c r="E18" s="3">
-        <v>3419500</v>
+        <v>2521800</v>
       </c>
       <c r="F18" s="3">
-        <v>2136300</v>
+        <v>3469100</v>
       </c>
       <c r="G18" s="3">
-        <v>1939400</v>
+        <v>2167200</v>
       </c>
       <c r="H18" s="3">
-        <v>2184800</v>
+        <v>1967600</v>
       </c>
       <c r="I18" s="3">
-        <v>1295400</v>
+        <v>2216500</v>
       </c>
       <c r="J18" s="3">
+        <v>1314100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2149600</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>668700</v>
+        <v>84600</v>
       </c>
       <c r="E20" s="3">
-        <v>1425100</v>
+        <v>678400</v>
       </c>
       <c r="F20" s="3">
-        <v>-596400</v>
+        <v>1445800</v>
       </c>
       <c r="G20" s="3">
-        <v>-1054200</v>
+        <v>-605000</v>
       </c>
       <c r="H20" s="3">
-        <v>-25800</v>
+        <v>-1069500</v>
       </c>
       <c r="I20" s="3">
-        <v>62500</v>
+        <v>-26100</v>
       </c>
       <c r="J20" s="3">
+        <v>63400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-76300</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3678500</v>
+        <v>4093600</v>
       </c>
       <c r="E21" s="3">
-        <v>5370400</v>
+        <v>3732500</v>
       </c>
       <c r="F21" s="3">
-        <v>1843200</v>
+        <v>5448900</v>
       </c>
       <c r="G21" s="3">
-        <v>1145900</v>
+        <v>1870300</v>
       </c>
       <c r="H21" s="3">
-        <v>2364000</v>
+        <v>1162900</v>
       </c>
       <c r="I21" s="3">
-        <v>1532400</v>
+        <v>2398500</v>
       </c>
       <c r="J21" s="3">
+        <v>1554900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2217200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>105700</v>
+        <v>63800</v>
       </c>
       <c r="E22" s="3">
-        <v>166700</v>
+        <v>107200</v>
       </c>
       <c r="F22" s="3">
-        <v>129100</v>
+        <v>169100</v>
       </c>
       <c r="G22" s="3">
-        <v>83100</v>
+        <v>130900</v>
       </c>
       <c r="H22" s="3">
-        <v>77400</v>
+        <v>84300</v>
       </c>
       <c r="I22" s="3">
-        <v>49100</v>
+        <v>78500</v>
       </c>
       <c r="J22" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K22" s="3">
         <v>23700</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3048700</v>
+        <v>3519400</v>
       </c>
       <c r="E23" s="3">
-        <v>4677900</v>
+        <v>3092900</v>
       </c>
       <c r="F23" s="3">
-        <v>1410800</v>
+        <v>4745700</v>
       </c>
       <c r="G23" s="3">
-        <v>802200</v>
+        <v>1431300</v>
       </c>
       <c r="H23" s="3">
-        <v>2081600</v>
+        <v>813800</v>
       </c>
       <c r="I23" s="3">
-        <v>1308700</v>
+        <v>2111800</v>
       </c>
       <c r="J23" s="3">
+        <v>1327700</v>
+      </c>
+      <c r="K23" s="3">
         <v>2049700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>521700</v>
+        <v>702000</v>
       </c>
       <c r="E24" s="3">
-        <v>654100</v>
+        <v>529300</v>
       </c>
       <c r="F24" s="3">
-        <v>285700</v>
+        <v>663600</v>
       </c>
       <c r="G24" s="3">
-        <v>241800</v>
+        <v>289900</v>
       </c>
       <c r="H24" s="3">
-        <v>412700</v>
+        <v>245300</v>
       </c>
       <c r="I24" s="3">
-        <v>254600</v>
+        <v>418600</v>
       </c>
       <c r="J24" s="3">
+        <v>258300</v>
+      </c>
+      <c r="K24" s="3">
         <v>238800</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2527000</v>
+        <v>2817400</v>
       </c>
       <c r="E26" s="3">
-        <v>4023800</v>
+        <v>2563600</v>
       </c>
       <c r="F26" s="3">
-        <v>1125100</v>
+        <v>4082100</v>
       </c>
       <c r="G26" s="3">
-        <v>560400</v>
+        <v>1141400</v>
       </c>
       <c r="H26" s="3">
-        <v>1669000</v>
+        <v>568500</v>
       </c>
       <c r="I26" s="3">
-        <v>1054100</v>
+        <v>1693200</v>
       </c>
       <c r="J26" s="3">
+        <v>1069400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1810800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2374000</v>
+        <v>2521600</v>
       </c>
       <c r="E27" s="3">
-        <v>3913300</v>
+        <v>2408400</v>
       </c>
       <c r="F27" s="3">
-        <v>1129300</v>
+        <v>3970000</v>
       </c>
       <c r="G27" s="3">
-        <v>566200</v>
+        <v>1145700</v>
       </c>
       <c r="H27" s="3">
-        <v>1669900</v>
+        <v>574400</v>
       </c>
       <c r="I27" s="3">
-        <v>1054400</v>
+        <v>1694100</v>
       </c>
       <c r="J27" s="3">
+        <v>1069700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1816400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-668700</v>
+        <v>-84600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1425100</v>
+        <v>-678400</v>
       </c>
       <c r="F32" s="3">
-        <v>596400</v>
+        <v>-1445800</v>
       </c>
       <c r="G32" s="3">
-        <v>1054200</v>
+        <v>605000</v>
       </c>
       <c r="H32" s="3">
-        <v>25800</v>
+        <v>1069500</v>
       </c>
       <c r="I32" s="3">
-        <v>-62500</v>
+        <v>26100</v>
       </c>
       <c r="J32" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="K32" s="3">
         <v>76300</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2374000</v>
+        <v>2521600</v>
       </c>
       <c r="E33" s="3">
-        <v>3913300</v>
+        <v>2408400</v>
       </c>
       <c r="F33" s="3">
-        <v>1129300</v>
+        <v>3970000</v>
       </c>
       <c r="G33" s="3">
-        <v>566200</v>
+        <v>1145700</v>
       </c>
       <c r="H33" s="3">
-        <v>1669900</v>
+        <v>574400</v>
       </c>
       <c r="I33" s="3">
-        <v>1054400</v>
+        <v>1694100</v>
       </c>
       <c r="J33" s="3">
+        <v>1069700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1816400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2374000</v>
+        <v>2521600</v>
       </c>
       <c r="E35" s="3">
-        <v>3913300</v>
+        <v>2408400</v>
       </c>
       <c r="F35" s="3">
-        <v>1129300</v>
+        <v>3970000</v>
       </c>
       <c r="G35" s="3">
-        <v>566200</v>
+        <v>1145700</v>
       </c>
       <c r="H35" s="3">
-        <v>1669900</v>
+        <v>574400</v>
       </c>
       <c r="I35" s="3">
-        <v>1054400</v>
+        <v>1694100</v>
       </c>
       <c r="J35" s="3">
+        <v>1069700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1816400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1001000</v>
+        <v>1066600</v>
       </c>
       <c r="E41" s="3">
-        <v>733200</v>
+        <v>1015500</v>
       </c>
       <c r="F41" s="3">
-        <v>443100</v>
+        <v>743800</v>
       </c>
       <c r="G41" s="3">
-        <v>627200</v>
+        <v>449500</v>
       </c>
       <c r="H41" s="3">
-        <v>119800</v>
+        <v>636300</v>
       </c>
       <c r="I41" s="3">
-        <v>279600</v>
+        <v>121500</v>
       </c>
       <c r="J41" s="3">
+        <v>283700</v>
+      </c>
+      <c r="K41" s="3">
         <v>361800</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>13500</v>
+        <v>621900</v>
       </c>
       <c r="E42" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F42" s="3">
         <v>4700</v>
       </c>
-      <c r="F42" s="3">
-        <v>98300</v>
-      </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>99700</v>
       </c>
       <c r="H42" s="3">
-        <v>500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>917600</v>
+        <v>1192900</v>
       </c>
       <c r="E43" s="3">
-        <v>912500</v>
+        <v>930900</v>
       </c>
       <c r="F43" s="3">
-        <v>898600</v>
+        <v>925800</v>
       </c>
       <c r="G43" s="3">
-        <v>913200</v>
+        <v>911600</v>
       </c>
       <c r="H43" s="3">
-        <v>879800</v>
+        <v>926500</v>
       </c>
       <c r="I43" s="3">
-        <v>275700</v>
+        <v>892500</v>
       </c>
       <c r="J43" s="3">
+        <v>279700</v>
+      </c>
+      <c r="K43" s="3">
         <v>271000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>168300</v>
+        <v>265700</v>
       </c>
       <c r="E44" s="3">
-        <v>137300</v>
+        <v>170700</v>
       </c>
       <c r="F44" s="3">
-        <v>124900</v>
+        <v>139300</v>
       </c>
       <c r="G44" s="3">
-        <v>106600</v>
+        <v>126700</v>
       </c>
       <c r="H44" s="3">
-        <v>90400</v>
+        <v>108200</v>
       </c>
       <c r="I44" s="3">
-        <v>46900</v>
+        <v>91700</v>
       </c>
       <c r="J44" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K44" s="3">
         <v>25500</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>228800</v>
+        <v>1370000</v>
       </c>
       <c r="E45" s="3">
-        <v>227600</v>
+        <v>232100</v>
       </c>
       <c r="F45" s="3">
-        <v>385300</v>
+        <v>230900</v>
       </c>
       <c r="G45" s="3">
-        <v>274600</v>
+        <v>390900</v>
       </c>
       <c r="H45" s="3">
-        <v>160800</v>
+        <v>278500</v>
       </c>
       <c r="I45" s="3">
-        <v>281800</v>
+        <v>163100</v>
       </c>
       <c r="J45" s="3">
+        <v>285900</v>
+      </c>
+      <c r="K45" s="3">
         <v>226900</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2329200</v>
+        <v>4517100</v>
       </c>
       <c r="E46" s="3">
-        <v>2015300</v>
+        <v>2362900</v>
       </c>
       <c r="F46" s="3">
-        <v>1950200</v>
+        <v>2044500</v>
       </c>
       <c r="G46" s="3">
-        <v>1921700</v>
+        <v>1978500</v>
       </c>
       <c r="H46" s="3">
-        <v>1251200</v>
+        <v>1949500</v>
       </c>
       <c r="I46" s="3">
-        <v>884100</v>
+        <v>1269400</v>
       </c>
       <c r="J46" s="3">
+        <v>896900</v>
+      </c>
+      <c r="K46" s="3">
         <v>885200</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7548100</v>
+        <v>7352400</v>
       </c>
       <c r="E47" s="3">
-        <v>7118700</v>
+        <v>7657400</v>
       </c>
       <c r="F47" s="3">
-        <v>5852400</v>
+        <v>7221900</v>
       </c>
       <c r="G47" s="3">
-        <v>3952600</v>
+        <v>5937200</v>
       </c>
       <c r="H47" s="3">
-        <v>3937800</v>
+        <v>4009900</v>
       </c>
       <c r="I47" s="3">
-        <v>3070700</v>
+        <v>3994900</v>
       </c>
       <c r="J47" s="3">
+        <v>3115200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2355300</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5465600</v>
+        <v>6286300</v>
       </c>
       <c r="E48" s="3">
-        <v>5036600</v>
+        <v>5544800</v>
       </c>
       <c r="F48" s="3">
-        <v>5035400</v>
+        <v>5109600</v>
       </c>
       <c r="G48" s="3">
-        <v>4428400</v>
+        <v>5108400</v>
       </c>
       <c r="H48" s="3">
-        <v>3699200</v>
+        <v>4492600</v>
       </c>
       <c r="I48" s="3">
-        <v>2996200</v>
+        <v>3752800</v>
       </c>
       <c r="J48" s="3">
+        <v>3039600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2531800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25300</v>
+        <v>32600</v>
       </c>
       <c r="E49" s="3">
-        <v>22900</v>
+        <v>25600</v>
       </c>
       <c r="F49" s="3">
-        <v>23800</v>
+        <v>23300</v>
       </c>
       <c r="G49" s="3">
-        <v>27300</v>
+        <v>24100</v>
       </c>
       <c r="H49" s="3">
-        <v>30200</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>35</v>
+        <v>27700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>30600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>482300</v>
+        <v>543600</v>
       </c>
       <c r="E52" s="3">
-        <v>437400</v>
+        <v>489300</v>
       </c>
       <c r="F52" s="3">
-        <v>497000</v>
+        <v>443800</v>
       </c>
       <c r="G52" s="3">
-        <v>283000</v>
+        <v>504200</v>
       </c>
       <c r="H52" s="3">
-        <v>159100</v>
+        <v>287100</v>
       </c>
       <c r="I52" s="3">
-        <v>79400</v>
+        <v>161400</v>
       </c>
       <c r="J52" s="3">
+        <v>80500</v>
+      </c>
+      <c r="K52" s="3">
         <v>48200</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15850400</v>
+        <v>18732100</v>
       </c>
       <c r="E54" s="3">
-        <v>14631000</v>
+        <v>16080100</v>
       </c>
       <c r="F54" s="3">
-        <v>13358800</v>
+        <v>14843000</v>
       </c>
       <c r="G54" s="3">
-        <v>10612900</v>
+        <v>13552400</v>
       </c>
       <c r="H54" s="3">
-        <v>9077600</v>
+        <v>10766700</v>
       </c>
       <c r="I54" s="3">
-        <v>7030400</v>
+        <v>9209100</v>
       </c>
       <c r="J54" s="3">
+        <v>7132200</v>
+      </c>
+      <c r="K54" s="3">
         <v>5820500</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>469600</v>
+        <v>805600</v>
       </c>
       <c r="E57" s="3">
-        <v>392100</v>
+        <v>476400</v>
       </c>
       <c r="F57" s="3">
-        <v>364200</v>
+        <v>397800</v>
       </c>
       <c r="G57" s="3">
-        <v>248100</v>
+        <v>369400</v>
       </c>
       <c r="H57" s="3">
-        <v>218200</v>
+        <v>251700</v>
       </c>
       <c r="I57" s="3">
-        <v>151200</v>
+        <v>221300</v>
       </c>
       <c r="J57" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K57" s="3">
         <v>378300</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>240200</v>
+        <v>68500</v>
       </c>
       <c r="E58" s="3">
-        <v>842000</v>
+        <v>243700</v>
       </c>
       <c r="F58" s="3">
-        <v>1619000</v>
+        <v>854200</v>
       </c>
       <c r="G58" s="3">
-        <v>622100</v>
+        <v>1642500</v>
       </c>
       <c r="H58" s="3">
-        <v>364700</v>
+        <v>631100</v>
       </c>
       <c r="I58" s="3">
-        <v>526500</v>
+        <v>370000</v>
       </c>
       <c r="J58" s="3">
+        <v>534100</v>
+      </c>
+      <c r="K58" s="3">
         <v>308100</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>564700</v>
+        <v>774100</v>
       </c>
       <c r="E59" s="3">
-        <v>417400</v>
+        <v>572900</v>
       </c>
       <c r="F59" s="3">
-        <v>592500</v>
+        <v>423400</v>
       </c>
       <c r="G59" s="3">
-        <v>362500</v>
+        <v>601100</v>
       </c>
       <c r="H59" s="3">
-        <v>326000</v>
+        <v>367800</v>
       </c>
       <c r="I59" s="3">
-        <v>159200</v>
+        <v>330700</v>
       </c>
       <c r="J59" s="3">
+        <v>161500</v>
+      </c>
+      <c r="K59" s="3">
         <v>74300</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1274500</v>
+        <v>1648200</v>
       </c>
       <c r="E60" s="3">
-        <v>1651400</v>
+        <v>1293000</v>
       </c>
       <c r="F60" s="3">
-        <v>2575700</v>
+        <v>1675400</v>
       </c>
       <c r="G60" s="3">
-        <v>1232700</v>
+        <v>2613000</v>
       </c>
       <c r="H60" s="3">
-        <v>908900</v>
+        <v>1250600</v>
       </c>
       <c r="I60" s="3">
-        <v>836900</v>
+        <v>922000</v>
       </c>
       <c r="J60" s="3">
+        <v>849000</v>
+      </c>
+      <c r="K60" s="3">
         <v>760700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2234900</v>
+        <v>2733700</v>
       </c>
       <c r="E61" s="3">
-        <v>2448500</v>
+        <v>2267200</v>
       </c>
       <c r="F61" s="3">
-        <v>3826100</v>
+        <v>2484000</v>
       </c>
       <c r="G61" s="3">
-        <v>3107300</v>
+        <v>3881600</v>
       </c>
       <c r="H61" s="3">
-        <v>2149400</v>
+        <v>3152400</v>
       </c>
       <c r="I61" s="3">
-        <v>1484700</v>
+        <v>2180600</v>
       </c>
       <c r="J61" s="3">
+        <v>1506200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1141200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>566500</v>
+        <v>696600</v>
       </c>
       <c r="E62" s="3">
-        <v>546900</v>
+        <v>574700</v>
       </c>
       <c r="F62" s="3">
-        <v>457300</v>
+        <v>554800</v>
       </c>
       <c r="G62" s="3">
-        <v>396300</v>
+        <v>464000</v>
       </c>
       <c r="H62" s="3">
-        <v>356300</v>
+        <v>402100</v>
       </c>
       <c r="I62" s="3">
-        <v>286900</v>
+        <v>361400</v>
       </c>
       <c r="J62" s="3">
+        <v>291000</v>
+      </c>
+      <c r="K62" s="3">
         <v>249800</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4346400</v>
+        <v>5361000</v>
       </c>
       <c r="E66" s="3">
-        <v>4789000</v>
+        <v>4409400</v>
       </c>
       <c r="F66" s="3">
-        <v>6890900</v>
+        <v>4858500</v>
       </c>
       <c r="G66" s="3">
-        <v>4772300</v>
+        <v>6990800</v>
       </c>
       <c r="H66" s="3">
-        <v>3458000</v>
+        <v>4841500</v>
       </c>
       <c r="I66" s="3">
-        <v>2627400</v>
+        <v>3508100</v>
       </c>
       <c r="J66" s="3">
+        <v>2665500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2161900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11114300</v>
+        <v>12983600</v>
       </c>
       <c r="E72" s="3">
-        <v>9391600</v>
+        <v>11275400</v>
       </c>
       <c r="F72" s="3">
-        <v>6069900</v>
+        <v>9527700</v>
       </c>
       <c r="G72" s="3">
-        <v>5350400</v>
+        <v>6157900</v>
       </c>
       <c r="H72" s="3">
-        <v>5079400</v>
+        <v>5427900</v>
       </c>
       <c r="I72" s="3">
-        <v>3849700</v>
+        <v>5153100</v>
       </c>
       <c r="J72" s="3">
+        <v>3905500</v>
+      </c>
+      <c r="K72" s="3">
         <v>3094800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11504000</v>
+        <v>13371100</v>
       </c>
       <c r="E76" s="3">
-        <v>9842000</v>
+        <v>11670700</v>
       </c>
       <c r="F76" s="3">
-        <v>6467900</v>
+        <v>9984600</v>
       </c>
       <c r="G76" s="3">
-        <v>5840600</v>
+        <v>6561600</v>
       </c>
       <c r="H76" s="3">
-        <v>5619600</v>
+        <v>5925200</v>
       </c>
       <c r="I76" s="3">
-        <v>4403000</v>
+        <v>5701000</v>
       </c>
       <c r="J76" s="3">
+        <v>4466800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3658600</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2374000</v>
+        <v>2521600</v>
       </c>
       <c r="E81" s="3">
-        <v>3913300</v>
+        <v>2408400</v>
       </c>
       <c r="F81" s="3">
-        <v>1129300</v>
+        <v>3970000</v>
       </c>
       <c r="G81" s="3">
-        <v>566200</v>
+        <v>1145700</v>
       </c>
       <c r="H81" s="3">
-        <v>1669900</v>
+        <v>574400</v>
       </c>
       <c r="I81" s="3">
-        <v>1054400</v>
+        <v>1694100</v>
       </c>
       <c r="J81" s="3">
+        <v>1069700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1816400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>524100</v>
+        <v>509600</v>
       </c>
       <c r="E83" s="3">
-        <v>525700</v>
+        <v>531700</v>
       </c>
       <c r="F83" s="3">
-        <v>303300</v>
+        <v>533300</v>
       </c>
       <c r="G83" s="3">
-        <v>260700</v>
+        <v>307700</v>
       </c>
       <c r="H83" s="3">
-        <v>205000</v>
+        <v>264400</v>
       </c>
       <c r="I83" s="3">
-        <v>174600</v>
+        <v>207900</v>
       </c>
       <c r="J83" s="3">
+        <v>177100</v>
+      </c>
+      <c r="K83" s="3">
         <v>143800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2738500</v>
+        <v>3331800</v>
       </c>
       <c r="E89" s="3">
-        <v>2638100</v>
+        <v>2778100</v>
       </c>
       <c r="F89" s="3">
-        <v>2016900</v>
+        <v>2676400</v>
       </c>
       <c r="G89" s="3">
-        <v>1688600</v>
+        <v>2046100</v>
       </c>
       <c r="H89" s="3">
-        <v>1343800</v>
+        <v>1713100</v>
       </c>
       <c r="I89" s="3">
-        <v>1151000</v>
+        <v>1363300</v>
       </c>
       <c r="J89" s="3">
+        <v>1167700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1091500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-413800</v>
+        <v>-1370700</v>
       </c>
       <c r="E91" s="3">
-        <v>-441700</v>
+        <v>-407800</v>
       </c>
       <c r="F91" s="3">
-        <v>-676100</v>
+        <v>-448100</v>
       </c>
       <c r="G91" s="3">
-        <v>-883500</v>
+        <v>-685900</v>
       </c>
       <c r="H91" s="3">
-        <v>-877100</v>
+        <v>-896300</v>
       </c>
       <c r="I91" s="3">
-        <v>-567400</v>
+        <v>-889800</v>
       </c>
       <c r="J91" s="3">
+        <v>-575600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-488900</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-884600</v>
+        <v>-2356900</v>
       </c>
       <c r="E94" s="3">
-        <v>180300</v>
+        <v>-897400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2414700</v>
+        <v>182900</v>
       </c>
       <c r="G94" s="3">
-        <v>-736000</v>
+        <v>-2449700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1525500</v>
+        <v>-746600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1277000</v>
+        <v>-1547600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1295500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-708000</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-638700</v>
+        <v>-309000</v>
       </c>
       <c r="E96" s="3">
-        <v>-632300</v>
+        <v>-648000</v>
       </c>
       <c r="F96" s="3">
-        <v>-541000</v>
+        <v>-641500</v>
       </c>
       <c r="G96" s="3">
-        <v>-439700</v>
+        <v>-548900</v>
       </c>
       <c r="H96" s="3">
-        <v>-334000</v>
+        <v>-446100</v>
       </c>
       <c r="I96" s="3">
-        <v>-299300</v>
+        <v>-338800</v>
       </c>
       <c r="J96" s="3">
+        <v>-303700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-230200</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1576200</v>
+        <v>-1442300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2378900</v>
+        <v>-1599100</v>
       </c>
       <c r="F100" s="3">
-        <v>193000</v>
+        <v>-2413400</v>
       </c>
       <c r="G100" s="3">
-        <v>-550300</v>
+        <v>195800</v>
       </c>
       <c r="H100" s="3">
-        <v>-108300</v>
+        <v>-558300</v>
       </c>
       <c r="I100" s="3">
-        <v>39500</v>
+        <v>-109800</v>
       </c>
       <c r="J100" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-178100</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9800</v>
+        <v>90600</v>
       </c>
       <c r="E101" s="3">
-        <v>-149400</v>
+        <v>-9900</v>
       </c>
       <c r="F101" s="3">
-        <v>20700</v>
+        <v>-151600</v>
       </c>
       <c r="G101" s="3">
-        <v>220000</v>
+        <v>21000</v>
       </c>
       <c r="H101" s="3">
-        <v>15200</v>
+        <v>223200</v>
       </c>
       <c r="I101" s="3">
-        <v>4300</v>
+        <v>15400</v>
       </c>
       <c r="J101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>267800</v>
+        <v>-376900</v>
       </c>
       <c r="E102" s="3">
-        <v>290200</v>
+        <v>271700</v>
       </c>
       <c r="F102" s="3">
-        <v>-184100</v>
+        <v>294400</v>
       </c>
       <c r="G102" s="3">
-        <v>622300</v>
+        <v>-186800</v>
       </c>
       <c r="H102" s="3">
-        <v>-274800</v>
+        <v>631400</v>
       </c>
       <c r="I102" s="3">
-        <v>-82100</v>
+        <v>-278700</v>
       </c>
       <c r="J102" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="K102" s="3">
         <v>206300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/NOVKY_YR_FIN.xlsx
+++ b/Financials/Yearly/NOVKY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5E51E9-E00E-4075-8EBB-2AB1590F46B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="NOVKY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12809100</v>
+        <v>13133500</v>
       </c>
       <c r="E8" s="3">
-        <v>8981100</v>
+        <v>9208500</v>
       </c>
       <c r="F8" s="3">
-        <v>8277100</v>
+        <v>8486700</v>
       </c>
       <c r="G8" s="3">
-        <v>7320000</v>
+        <v>7505400</v>
       </c>
       <c r="H8" s="3">
-        <v>5507700</v>
+        <v>5647200</v>
       </c>
       <c r="I8" s="3">
-        <v>4591600</v>
+        <v>4707900</v>
       </c>
       <c r="J8" s="3">
-        <v>3249000</v>
+        <v>3331300</v>
       </c>
       <c r="K8" s="3">
         <v>2660600</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7272500</v>
+        <v>7456600</v>
       </c>
       <c r="E9" s="3">
-        <v>4734900</v>
+        <v>4854800</v>
       </c>
       <c r="F9" s="3">
-        <v>4407000</v>
+        <v>4518600</v>
       </c>
       <c r="G9" s="3">
-        <v>4045700</v>
+        <v>4148100</v>
       </c>
       <c r="H9" s="3">
-        <v>2745700</v>
+        <v>2815200</v>
       </c>
       <c r="I9" s="3">
-        <v>2210600</v>
+        <v>2266600</v>
       </c>
       <c r="J9" s="3">
-        <v>1300700</v>
+        <v>1333600</v>
       </c>
       <c r="K9" s="3">
         <v>179700</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5536600</v>
+        <v>5676800</v>
       </c>
       <c r="E10" s="3">
-        <v>4246200</v>
+        <v>4353700</v>
       </c>
       <c r="F10" s="3">
-        <v>3870100</v>
+        <v>3968100</v>
       </c>
       <c r="G10" s="3">
-        <v>3274300</v>
+        <v>3357300</v>
       </c>
       <c r="H10" s="3">
-        <v>2762000</v>
+        <v>2832000</v>
       </c>
       <c r="I10" s="3">
-        <v>2381000</v>
+        <v>2441300</v>
       </c>
       <c r="J10" s="3">
-        <v>1948300</v>
+        <v>1997600</v>
       </c>
       <c r="K10" s="3">
         <v>2481000</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,37 +813,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>108000</v>
+        <v>110700</v>
       </c>
       <c r="E12" s="3">
-        <v>28000</v>
+        <v>28700</v>
       </c>
       <c r="F12" s="3">
-        <v>32100</v>
+        <v>33000</v>
       </c>
       <c r="G12" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="H12" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I12" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="J12" s="3">
-        <v>31100</v>
+        <v>31900</v>
       </c>
       <c r="K12" s="3">
         <v>27600</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-20900</v>
+        <v>-21400</v>
       </c>
       <c r="E14" s="3">
         <v>800</v>
       </c>
       <c r="F14" s="3">
-        <v>-1122600</v>
+        <v>-1151000</v>
       </c>
       <c r="G14" s="3">
-        <v>-18400</v>
+        <v>-18800</v>
       </c>
       <c r="H14" s="3">
-        <v>-43900</v>
+        <v>-45000</v>
       </c>
       <c r="I14" s="3">
-        <v>-539600</v>
+        <v>-553300</v>
       </c>
       <c r="J14" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K14" s="3">
         <v>11900</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>520800</v>
+        <v>533900</v>
       </c>
       <c r="E15" s="3">
-        <v>542900</v>
+        <v>556600</v>
       </c>
       <c r="F15" s="3">
-        <v>537600</v>
+        <v>551300</v>
       </c>
       <c r="G15" s="3">
-        <v>310000</v>
+        <v>317800</v>
       </c>
       <c r="H15" s="3">
-        <v>266500</v>
+        <v>273200</v>
       </c>
       <c r="I15" s="3">
-        <v>210100</v>
+        <v>215400</v>
       </c>
       <c r="J15" s="3">
-        <v>177100</v>
+        <v>181600</v>
       </c>
       <c r="K15" s="3">
         <v>143800</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9310400</v>
+        <v>9546200</v>
       </c>
       <c r="E17" s="3">
-        <v>6459300</v>
+        <v>6622900</v>
       </c>
       <c r="F17" s="3">
-        <v>4808000</v>
+        <v>4929700</v>
       </c>
       <c r="G17" s="3">
-        <v>5152800</v>
+        <v>5283300</v>
       </c>
       <c r="H17" s="3">
-        <v>3540200</v>
+        <v>3629800</v>
       </c>
       <c r="I17" s="3">
-        <v>2375200</v>
+        <v>2435300</v>
       </c>
       <c r="J17" s="3">
-        <v>1934800</v>
+        <v>1983800</v>
       </c>
       <c r="K17" s="3">
         <v>511000</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3498600</v>
+        <v>3587200</v>
       </c>
       <c r="E18" s="3">
-        <v>2521800</v>
+        <v>2585600</v>
       </c>
       <c r="F18" s="3">
-        <v>3469100</v>
+        <v>3557000</v>
       </c>
       <c r="G18" s="3">
-        <v>2167200</v>
+        <v>2222100</v>
       </c>
       <c r="H18" s="3">
-        <v>1967600</v>
+        <v>2017400</v>
       </c>
       <c r="I18" s="3">
-        <v>2216500</v>
+        <v>2272600</v>
       </c>
       <c r="J18" s="3">
-        <v>1314100</v>
+        <v>1347400</v>
       </c>
       <c r="K18" s="3">
         <v>2149600</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>84600</v>
+        <v>86800</v>
       </c>
       <c r="E20" s="3">
-        <v>678400</v>
+        <v>695600</v>
       </c>
       <c r="F20" s="3">
-        <v>1445800</v>
+        <v>1482400</v>
       </c>
       <c r="G20" s="3">
-        <v>-605000</v>
+        <v>-620300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1069500</v>
+        <v>-1096600</v>
       </c>
       <c r="I20" s="3">
-        <v>-26100</v>
+        <v>-26800</v>
       </c>
       <c r="J20" s="3">
-        <v>63400</v>
+        <v>65000</v>
       </c>
       <c r="K20" s="3">
         <v>-76300</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4093600</v>
+        <v>4200500</v>
       </c>
       <c r="E21" s="3">
-        <v>3732500</v>
+        <v>3830500</v>
       </c>
       <c r="F21" s="3">
-        <v>5448900</v>
+        <v>5590300</v>
       </c>
       <c r="G21" s="3">
-        <v>1870300</v>
+        <v>1919700</v>
       </c>
       <c r="H21" s="3">
-        <v>1162900</v>
+        <v>1194000</v>
       </c>
       <c r="I21" s="3">
-        <v>2398500</v>
+        <v>2460600</v>
       </c>
       <c r="J21" s="3">
-        <v>1554900</v>
+        <v>1595400</v>
       </c>
       <c r="K21" s="3">
         <v>2217200</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>63800</v>
+        <v>65400</v>
       </c>
       <c r="E22" s="3">
-        <v>107200</v>
+        <v>109900</v>
       </c>
       <c r="F22" s="3">
-        <v>169100</v>
+        <v>173400</v>
       </c>
       <c r="G22" s="3">
-        <v>130900</v>
+        <v>134200</v>
       </c>
       <c r="H22" s="3">
-        <v>84300</v>
+        <v>86400</v>
       </c>
       <c r="I22" s="3">
-        <v>78500</v>
+        <v>80500</v>
       </c>
       <c r="J22" s="3">
-        <v>49800</v>
+        <v>51100</v>
       </c>
       <c r="K22" s="3">
         <v>23700</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3519400</v>
+        <v>3608600</v>
       </c>
       <c r="E23" s="3">
-        <v>3092900</v>
+        <v>3171200</v>
       </c>
       <c r="F23" s="3">
-        <v>4745700</v>
+        <v>4865900</v>
       </c>
       <c r="G23" s="3">
-        <v>1431300</v>
+        <v>1467500</v>
       </c>
       <c r="H23" s="3">
-        <v>813800</v>
+        <v>834400</v>
       </c>
       <c r="I23" s="3">
-        <v>2111800</v>
+        <v>2165300</v>
       </c>
       <c r="J23" s="3">
-        <v>1327700</v>
+        <v>1361300</v>
       </c>
       <c r="K23" s="3">
         <v>2049700</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>702000</v>
+        <v>719800</v>
       </c>
       <c r="E24" s="3">
-        <v>529300</v>
+        <v>542700</v>
       </c>
       <c r="F24" s="3">
-        <v>663600</v>
+        <v>680400</v>
       </c>
       <c r="G24" s="3">
-        <v>289900</v>
+        <v>297200</v>
       </c>
       <c r="H24" s="3">
-        <v>245300</v>
+        <v>251500</v>
       </c>
       <c r="I24" s="3">
-        <v>418600</v>
+        <v>429300</v>
       </c>
       <c r="J24" s="3">
-        <v>258300</v>
+        <v>264900</v>
       </c>
       <c r="K24" s="3">
         <v>238800</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2817400</v>
+        <v>2888700</v>
       </c>
       <c r="E26" s="3">
-        <v>2563600</v>
+        <v>2628600</v>
       </c>
       <c r="F26" s="3">
-        <v>4082100</v>
+        <v>4185500</v>
       </c>
       <c r="G26" s="3">
-        <v>1141400</v>
+        <v>1170300</v>
       </c>
       <c r="H26" s="3">
-        <v>568500</v>
+        <v>582900</v>
       </c>
       <c r="I26" s="3">
-        <v>1693200</v>
+        <v>1736000</v>
       </c>
       <c r="J26" s="3">
-        <v>1069400</v>
+        <v>1096500</v>
       </c>
       <c r="K26" s="3">
         <v>1810800</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2521600</v>
+        <v>2585500</v>
       </c>
       <c r="E27" s="3">
-        <v>2408400</v>
+        <v>2469400</v>
       </c>
       <c r="F27" s="3">
-        <v>3970000</v>
+        <v>4070600</v>
       </c>
       <c r="G27" s="3">
-        <v>1145700</v>
+        <v>1174700</v>
       </c>
       <c r="H27" s="3">
-        <v>574400</v>
+        <v>588900</v>
       </c>
       <c r="I27" s="3">
-        <v>1694100</v>
+        <v>1737000</v>
       </c>
       <c r="J27" s="3">
-        <v>1069700</v>
+        <v>1096700</v>
       </c>
       <c r="K27" s="3">
         <v>1816400</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-84600</v>
+        <v>-86800</v>
       </c>
       <c r="E32" s="3">
-        <v>-678400</v>
+        <v>-695600</v>
       </c>
       <c r="F32" s="3">
-        <v>-1445800</v>
+        <v>-1482400</v>
       </c>
       <c r="G32" s="3">
-        <v>605000</v>
+        <v>620300</v>
       </c>
       <c r="H32" s="3">
-        <v>1069500</v>
+        <v>1096600</v>
       </c>
       <c r="I32" s="3">
-        <v>26100</v>
+        <v>26800</v>
       </c>
       <c r="J32" s="3">
-        <v>-63400</v>
+        <v>-65000</v>
       </c>
       <c r="K32" s="3">
         <v>76300</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2521600</v>
+        <v>2585500</v>
       </c>
       <c r="E33" s="3">
-        <v>2408400</v>
+        <v>2469400</v>
       </c>
       <c r="F33" s="3">
-        <v>3970000</v>
+        <v>4070600</v>
       </c>
       <c r="G33" s="3">
-        <v>1145700</v>
+        <v>1174700</v>
       </c>
       <c r="H33" s="3">
-        <v>574400</v>
+        <v>588900</v>
       </c>
       <c r="I33" s="3">
-        <v>1694100</v>
+        <v>1737000</v>
       </c>
       <c r="J33" s="3">
-        <v>1069700</v>
+        <v>1096700</v>
       </c>
       <c r="K33" s="3">
         <v>1816400</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2521600</v>
+        <v>2585500</v>
       </c>
       <c r="E35" s="3">
-        <v>2408400</v>
+        <v>2469400</v>
       </c>
       <c r="F35" s="3">
-        <v>3970000</v>
+        <v>4070600</v>
       </c>
       <c r="G35" s="3">
-        <v>1145700</v>
+        <v>1174700</v>
       </c>
       <c r="H35" s="3">
-        <v>574400</v>
+        <v>588900</v>
       </c>
       <c r="I35" s="3">
-        <v>1694100</v>
+        <v>1737000</v>
       </c>
       <c r="J35" s="3">
-        <v>1069700</v>
+        <v>1096700</v>
       </c>
       <c r="K35" s="3">
         <v>1816400</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1596,51 +1561,51 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1066600</v>
+        <v>1093600</v>
       </c>
       <c r="E41" s="3">
-        <v>1015500</v>
+        <v>1041200</v>
       </c>
       <c r="F41" s="3">
-        <v>743800</v>
+        <v>762700</v>
       </c>
       <c r="G41" s="3">
-        <v>449500</v>
+        <v>460900</v>
       </c>
       <c r="H41" s="3">
-        <v>636300</v>
+        <v>652400</v>
       </c>
       <c r="I41" s="3">
-        <v>121500</v>
+        <v>124600</v>
       </c>
       <c r="J41" s="3">
-        <v>283700</v>
+        <v>290900</v>
       </c>
       <c r="K41" s="3">
         <v>361800</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>621900</v>
+        <v>637700</v>
       </c>
       <c r="E42" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="F42" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="G42" s="3">
-        <v>99700</v>
+        <v>102300</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1656,207 +1621,207 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1192900</v>
+        <v>1223100</v>
       </c>
       <c r="E43" s="3">
-        <v>930900</v>
+        <v>954500</v>
       </c>
       <c r="F43" s="3">
-        <v>925800</v>
+        <v>949200</v>
       </c>
       <c r="G43" s="3">
-        <v>911600</v>
+        <v>934700</v>
       </c>
       <c r="H43" s="3">
-        <v>926500</v>
+        <v>949900</v>
       </c>
       <c r="I43" s="3">
-        <v>892500</v>
+        <v>915100</v>
       </c>
       <c r="J43" s="3">
-        <v>279700</v>
+        <v>286800</v>
       </c>
       <c r="K43" s="3">
         <v>271000</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>265700</v>
+        <v>272400</v>
       </c>
       <c r="E44" s="3">
-        <v>170700</v>
+        <v>175000</v>
       </c>
       <c r="F44" s="3">
-        <v>139300</v>
+        <v>142800</v>
       </c>
       <c r="G44" s="3">
-        <v>126700</v>
+        <v>129900</v>
       </c>
       <c r="H44" s="3">
-        <v>108200</v>
+        <v>110900</v>
       </c>
       <c r="I44" s="3">
-        <v>91700</v>
+        <v>94000</v>
       </c>
       <c r="J44" s="3">
-        <v>47600</v>
+        <v>48800</v>
       </c>
       <c r="K44" s="3">
         <v>25500</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1370000</v>
+        <v>1404700</v>
       </c>
       <c r="E45" s="3">
-        <v>232100</v>
+        <v>238000</v>
       </c>
       <c r="F45" s="3">
-        <v>230900</v>
+        <v>236700</v>
       </c>
       <c r="G45" s="3">
-        <v>390900</v>
+        <v>400800</v>
       </c>
       <c r="H45" s="3">
-        <v>278500</v>
+        <v>285600</v>
       </c>
       <c r="I45" s="3">
-        <v>163100</v>
+        <v>167200</v>
       </c>
       <c r="J45" s="3">
-        <v>285900</v>
+        <v>293200</v>
       </c>
       <c r="K45" s="3">
         <v>226900</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4517100</v>
+        <v>4631500</v>
       </c>
       <c r="E46" s="3">
-        <v>2362900</v>
+        <v>2422800</v>
       </c>
       <c r="F46" s="3">
-        <v>2044500</v>
+        <v>2096300</v>
       </c>
       <c r="G46" s="3">
-        <v>1978500</v>
+        <v>2028600</v>
       </c>
       <c r="H46" s="3">
-        <v>1949500</v>
+        <v>1998900</v>
       </c>
       <c r="I46" s="3">
-        <v>1269400</v>
+        <v>1301500</v>
       </c>
       <c r="J46" s="3">
-        <v>896900</v>
+        <v>919700</v>
       </c>
       <c r="K46" s="3">
         <v>885200</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7352400</v>
+        <v>7538600</v>
       </c>
       <c r="E47" s="3">
-        <v>7657400</v>
+        <v>7851400</v>
       </c>
       <c r="F47" s="3">
-        <v>7221900</v>
+        <v>7404800</v>
       </c>
       <c r="G47" s="3">
-        <v>5937200</v>
+        <v>6087600</v>
       </c>
       <c r="H47" s="3">
-        <v>4009900</v>
+        <v>4111400</v>
       </c>
       <c r="I47" s="3">
-        <v>3994900</v>
+        <v>4096100</v>
       </c>
       <c r="J47" s="3">
-        <v>3115200</v>
+        <v>3194100</v>
       </c>
       <c r="K47" s="3">
         <v>2355300</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6286300</v>
+        <v>6445500</v>
       </c>
       <c r="E48" s="3">
-        <v>5544800</v>
+        <v>5685200</v>
       </c>
       <c r="F48" s="3">
-        <v>5109600</v>
+        <v>5239000</v>
       </c>
       <c r="G48" s="3">
-        <v>5108400</v>
+        <v>5237700</v>
       </c>
       <c r="H48" s="3">
-        <v>4492600</v>
+        <v>4606400</v>
       </c>
       <c r="I48" s="3">
-        <v>3752800</v>
+        <v>3847800</v>
       </c>
       <c r="J48" s="3">
-        <v>3039600</v>
+        <v>3116600</v>
       </c>
       <c r="K48" s="3">
         <v>2531800</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32600</v>
+        <v>33500</v>
       </c>
       <c r="E49" s="3">
-        <v>25600</v>
+        <v>26300</v>
       </c>
       <c r="F49" s="3">
-        <v>23300</v>
+        <v>23800</v>
       </c>
       <c r="G49" s="3">
-        <v>24100</v>
+        <v>24700</v>
       </c>
       <c r="H49" s="3">
-        <v>27700</v>
+        <v>28400</v>
       </c>
       <c r="I49" s="3">
-        <v>30600</v>
+        <v>31400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>35</v>
@@ -1866,7 +1831,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>543600</v>
+        <v>557400</v>
       </c>
       <c r="E52" s="3">
-        <v>489300</v>
+        <v>501700</v>
       </c>
       <c r="F52" s="3">
-        <v>443800</v>
+        <v>455000</v>
       </c>
       <c r="G52" s="3">
-        <v>504200</v>
+        <v>516900</v>
       </c>
       <c r="H52" s="3">
-        <v>287100</v>
+        <v>294400</v>
       </c>
       <c r="I52" s="3">
-        <v>161400</v>
+        <v>165500</v>
       </c>
       <c r="J52" s="3">
-        <v>80500</v>
+        <v>82600</v>
       </c>
       <c r="K52" s="3">
         <v>48200</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18732100</v>
+        <v>19206500</v>
       </c>
       <c r="E54" s="3">
-        <v>16080100</v>
+        <v>16487300</v>
       </c>
       <c r="F54" s="3">
-        <v>14843000</v>
+        <v>15218900</v>
       </c>
       <c r="G54" s="3">
-        <v>13552400</v>
+        <v>13895600</v>
       </c>
       <c r="H54" s="3">
-        <v>10766700</v>
+        <v>11039400</v>
       </c>
       <c r="I54" s="3">
-        <v>9209100</v>
+        <v>9442300</v>
       </c>
       <c r="J54" s="3">
-        <v>7132200</v>
+        <v>7312900</v>
       </c>
       <c r="K54" s="3">
         <v>5820500</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>805600</v>
+        <v>826000</v>
       </c>
       <c r="E57" s="3">
-        <v>476400</v>
+        <v>488500</v>
       </c>
       <c r="F57" s="3">
-        <v>397800</v>
+        <v>407800</v>
       </c>
       <c r="G57" s="3">
-        <v>369400</v>
+        <v>378800</v>
       </c>
       <c r="H57" s="3">
-        <v>251700</v>
+        <v>258100</v>
       </c>
       <c r="I57" s="3">
-        <v>221300</v>
+        <v>226900</v>
       </c>
       <c r="J57" s="3">
-        <v>153400</v>
+        <v>157300</v>
       </c>
       <c r="K57" s="3">
         <v>378300</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>68500</v>
+        <v>70200</v>
       </c>
       <c r="E58" s="3">
-        <v>243700</v>
+        <v>249800</v>
       </c>
       <c r="F58" s="3">
-        <v>854200</v>
+        <v>875900</v>
       </c>
       <c r="G58" s="3">
-        <v>1642500</v>
+        <v>1684100</v>
       </c>
       <c r="H58" s="3">
-        <v>631100</v>
+        <v>647100</v>
       </c>
       <c r="I58" s="3">
-        <v>370000</v>
+        <v>379400</v>
       </c>
       <c r="J58" s="3">
-        <v>534100</v>
+        <v>547600</v>
       </c>
       <c r="K58" s="3">
         <v>308100</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>774100</v>
+        <v>793700</v>
       </c>
       <c r="E59" s="3">
-        <v>572900</v>
+        <v>587400</v>
       </c>
       <c r="F59" s="3">
-        <v>423400</v>
+        <v>434100</v>
       </c>
       <c r="G59" s="3">
-        <v>601100</v>
+        <v>616300</v>
       </c>
       <c r="H59" s="3">
-        <v>367800</v>
+        <v>377100</v>
       </c>
       <c r="I59" s="3">
-        <v>330700</v>
+        <v>339100</v>
       </c>
       <c r="J59" s="3">
-        <v>161500</v>
+        <v>165600</v>
       </c>
       <c r="K59" s="3">
         <v>74300</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1648200</v>
+        <v>1689900</v>
       </c>
       <c r="E60" s="3">
-        <v>1293000</v>
+        <v>1325700</v>
       </c>
       <c r="F60" s="3">
-        <v>1675400</v>
+        <v>1717800</v>
       </c>
       <c r="G60" s="3">
-        <v>2613000</v>
+        <v>2679200</v>
       </c>
       <c r="H60" s="3">
-        <v>1250600</v>
+        <v>1282300</v>
       </c>
       <c r="I60" s="3">
-        <v>922000</v>
+        <v>945400</v>
       </c>
       <c r="J60" s="3">
-        <v>849000</v>
+        <v>870500</v>
       </c>
       <c r="K60" s="3">
         <v>760700</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2733700</v>
+        <v>2803000</v>
       </c>
       <c r="E61" s="3">
-        <v>2267200</v>
+        <v>2324700</v>
       </c>
       <c r="F61" s="3">
-        <v>2484000</v>
+        <v>2546900</v>
       </c>
       <c r="G61" s="3">
-        <v>3881600</v>
+        <v>3979900</v>
       </c>
       <c r="H61" s="3">
-        <v>3152400</v>
+        <v>3232200</v>
       </c>
       <c r="I61" s="3">
-        <v>2180600</v>
+        <v>2235800</v>
       </c>
       <c r="J61" s="3">
-        <v>1506200</v>
+        <v>1544300</v>
       </c>
       <c r="K61" s="3">
         <v>1141200</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>696600</v>
+        <v>714300</v>
       </c>
       <c r="E62" s="3">
-        <v>574700</v>
+        <v>589300</v>
       </c>
       <c r="F62" s="3">
-        <v>554800</v>
+        <v>568900</v>
       </c>
       <c r="G62" s="3">
-        <v>464000</v>
+        <v>475700</v>
       </c>
       <c r="H62" s="3">
-        <v>402100</v>
+        <v>412200</v>
       </c>
       <c r="I62" s="3">
-        <v>361400</v>
+        <v>370600</v>
       </c>
       <c r="J62" s="3">
-        <v>291000</v>
+        <v>298400</v>
       </c>
       <c r="K62" s="3">
         <v>249800</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5361000</v>
+        <v>5496800</v>
       </c>
       <c r="E66" s="3">
-        <v>4409400</v>
+        <v>4521000</v>
       </c>
       <c r="F66" s="3">
-        <v>4858500</v>
+        <v>4981500</v>
       </c>
       <c r="G66" s="3">
-        <v>6990800</v>
+        <v>7167800</v>
       </c>
       <c r="H66" s="3">
-        <v>4841500</v>
+        <v>4964100</v>
       </c>
       <c r="I66" s="3">
-        <v>3508100</v>
+        <v>3596900</v>
       </c>
       <c r="J66" s="3">
-        <v>2665500</v>
+        <v>2733000</v>
       </c>
       <c r="K66" s="3">
         <v>2161900</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12983600</v>
+        <v>13312500</v>
       </c>
       <c r="E72" s="3">
-        <v>11275400</v>
+        <v>11560900</v>
       </c>
       <c r="F72" s="3">
-        <v>9527700</v>
+        <v>9769000</v>
       </c>
       <c r="G72" s="3">
-        <v>6157900</v>
+        <v>6313800</v>
       </c>
       <c r="H72" s="3">
-        <v>5427900</v>
+        <v>5565400</v>
       </c>
       <c r="I72" s="3">
-        <v>5153100</v>
+        <v>5283600</v>
       </c>
       <c r="J72" s="3">
-        <v>3905500</v>
+        <v>4004400</v>
       </c>
       <c r="K72" s="3">
         <v>3094800</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13371100</v>
+        <v>13709700</v>
       </c>
       <c r="E76" s="3">
-        <v>11670700</v>
+        <v>11966300</v>
       </c>
       <c r="F76" s="3">
-        <v>9984600</v>
+        <v>10237400</v>
       </c>
       <c r="G76" s="3">
-        <v>6561600</v>
+        <v>6727800</v>
       </c>
       <c r="H76" s="3">
-        <v>5925200</v>
+        <v>6075300</v>
       </c>
       <c r="I76" s="3">
-        <v>5701000</v>
+        <v>5845400</v>
       </c>
       <c r="J76" s="3">
-        <v>4466800</v>
+        <v>4579900</v>
       </c>
       <c r="K76" s="3">
         <v>3658600</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2521600</v>
+        <v>2585500</v>
       </c>
       <c r="E81" s="3">
-        <v>2408400</v>
+        <v>2469400</v>
       </c>
       <c r="F81" s="3">
-        <v>3970000</v>
+        <v>4070600</v>
       </c>
       <c r="G81" s="3">
-        <v>1145700</v>
+        <v>1174700</v>
       </c>
       <c r="H81" s="3">
-        <v>574400</v>
+        <v>588900</v>
       </c>
       <c r="I81" s="3">
-        <v>1694100</v>
+        <v>1737000</v>
       </c>
       <c r="J81" s="3">
-        <v>1069700</v>
+        <v>1096700</v>
       </c>
       <c r="K81" s="3">
         <v>1816400</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>509600</v>
+        <v>522600</v>
       </c>
       <c r="E83" s="3">
-        <v>531700</v>
+        <v>545100</v>
       </c>
       <c r="F83" s="3">
-        <v>533300</v>
+        <v>546800</v>
       </c>
       <c r="G83" s="3">
-        <v>307700</v>
+        <v>315500</v>
       </c>
       <c r="H83" s="3">
-        <v>264400</v>
+        <v>271100</v>
       </c>
       <c r="I83" s="3">
-        <v>207900</v>
+        <v>213200</v>
       </c>
       <c r="J83" s="3">
-        <v>177100</v>
+        <v>181600</v>
       </c>
       <c r="K83" s="3">
         <v>143800</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3331800</v>
+        <v>3416200</v>
       </c>
       <c r="E89" s="3">
-        <v>2778100</v>
+        <v>2848500</v>
       </c>
       <c r="F89" s="3">
-        <v>2676400</v>
+        <v>2744200</v>
       </c>
       <c r="G89" s="3">
-        <v>2046100</v>
+        <v>2097900</v>
       </c>
       <c r="H89" s="3">
-        <v>1713100</v>
+        <v>1756500</v>
       </c>
       <c r="I89" s="3">
-        <v>1363300</v>
+        <v>1397800</v>
       </c>
       <c r="J89" s="3">
-        <v>1167700</v>
+        <v>1197300</v>
       </c>
       <c r="K89" s="3">
         <v>1091500</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1370700</v>
+        <v>-1405400</v>
       </c>
       <c r="E91" s="3">
-        <v>-407800</v>
+        <v>-418100</v>
       </c>
       <c r="F91" s="3">
-        <v>-448100</v>
+        <v>-459500</v>
       </c>
       <c r="G91" s="3">
-        <v>-685900</v>
+        <v>-703200</v>
       </c>
       <c r="H91" s="3">
-        <v>-896300</v>
+        <v>-919000</v>
       </c>
       <c r="I91" s="3">
-        <v>-889800</v>
+        <v>-912400</v>
       </c>
       <c r="J91" s="3">
-        <v>-575600</v>
+        <v>-590200</v>
       </c>
       <c r="K91" s="3">
         <v>-488900</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2356900</v>
+        <v>-2416600</v>
       </c>
       <c r="E94" s="3">
-        <v>-897400</v>
+        <v>-920200</v>
       </c>
       <c r="F94" s="3">
-        <v>182900</v>
+        <v>187500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2449700</v>
+        <v>-2511800</v>
       </c>
       <c r="H94" s="3">
-        <v>-746600</v>
+        <v>-765500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1547600</v>
+        <v>-1586800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1295500</v>
+        <v>-1328300</v>
       </c>
       <c r="K94" s="3">
         <v>-708000</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-309000</v>
+        <v>-316900</v>
       </c>
       <c r="E96" s="3">
-        <v>-648000</v>
+        <v>-664400</v>
       </c>
       <c r="F96" s="3">
-        <v>-641500</v>
+        <v>-657700</v>
       </c>
       <c r="G96" s="3">
-        <v>-548900</v>
+        <v>-562800</v>
       </c>
       <c r="H96" s="3">
-        <v>-446100</v>
+        <v>-457400</v>
       </c>
       <c r="I96" s="3">
-        <v>-338800</v>
+        <v>-347400</v>
       </c>
       <c r="J96" s="3">
-        <v>-303700</v>
+        <v>-311300</v>
       </c>
       <c r="K96" s="3">
         <v>-230200</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1442300</v>
+        <v>-1478900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1599100</v>
+        <v>-1639600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2413400</v>
+        <v>-2474500</v>
       </c>
       <c r="G100" s="3">
-        <v>195800</v>
+        <v>200800</v>
       </c>
       <c r="H100" s="3">
-        <v>-558300</v>
+        <v>-572400</v>
       </c>
       <c r="I100" s="3">
-        <v>-109800</v>
+        <v>-112600</v>
       </c>
       <c r="J100" s="3">
-        <v>40100</v>
+        <v>41100</v>
       </c>
       <c r="K100" s="3">
         <v>-178100</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>90600</v>
+        <v>92900</v>
       </c>
       <c r="E101" s="3">
-        <v>-9900</v>
+        <v>-10200</v>
       </c>
       <c r="F101" s="3">
-        <v>-151600</v>
+        <v>-155400</v>
       </c>
       <c r="G101" s="3">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="H101" s="3">
-        <v>223200</v>
+        <v>228800</v>
       </c>
       <c r="I101" s="3">
-        <v>15400</v>
+        <v>15800</v>
       </c>
       <c r="J101" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K101" s="3">
         <v>1000</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-376900</v>
+        <v>-386400</v>
       </c>
       <c r="E102" s="3">
-        <v>271700</v>
+        <v>278600</v>
       </c>
       <c r="F102" s="3">
-        <v>294400</v>
+        <v>301800</v>
       </c>
       <c r="G102" s="3">
-        <v>-186800</v>
+        <v>-191500</v>
       </c>
       <c r="H102" s="3">
-        <v>631400</v>
+        <v>647400</v>
       </c>
       <c r="I102" s="3">
-        <v>-278700</v>
+        <v>-285800</v>
       </c>
       <c r="J102" s="3">
-        <v>-83300</v>
+        <v>-85400</v>
       </c>
       <c r="K102" s="3">
         <v>206300</v>
